--- a/negative values.xlsx
+++ b/negative values.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam Kane\Documents\Manuscripts\Trout migration\trout-migration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Documents\Science\Manuscripts\trout-migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F11547A-B5DA-4DFB-87F1-9E12D0D57D2C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BBEA3E-9492-4EE1-B245-4C1C2E5E4526}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{08A05837-9950-45DD-821B-4B48CDF8BCA0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{08A05837-9950-45DD-821B-4B48CDF8BCA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>weight</t>
   </si>
@@ -41,13 +42,42 @@
   <si>
     <t>G</t>
   </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>father</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>/2</t>
+  </si>
+  <si>
+    <t>0.5 = (either 1 + 0 or 0 + 1)</t>
+  </si>
+  <si>
+    <t>1.5 = (either 2 + 1 or 1 + 2)</t>
+  </si>
+  <si>
+    <t>offsrping</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -75,8 +105,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,13 +424,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193354B8-260E-49CF-B49C-F9DB1FEE72E0}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>-0.92803389999999997</v>
       </c>
@@ -441,7 +472,7 @@
         <v>-1.8560677999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.86124679999999998</v>
       </c>
@@ -463,7 +494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.79926620000000004</v>
       </c>
@@ -485,7 +516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.74174609999999996</v>
       </c>
@@ -507,7 +538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.68836549999999996</v>
       </c>
@@ -529,7 +560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.63882649999999996</v>
       </c>
@@ -551,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.59285259999999995</v>
       </c>
@@ -573,7 +604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.55018730000000005</v>
       </c>
@@ -595,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.51059239999999995</v>
       </c>
@@ -617,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.47384710000000002</v>
       </c>
@@ -639,7 +670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.43974609999999997</v>
       </c>
@@ -661,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.4080993</v>
       </c>
@@ -683,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.37873000000000001</v>
       </c>
@@ -705,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.35147420000000001</v>
       </c>
@@ -727,7 +758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.32618000000000003</v>
       </c>
@@ -749,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.30270609999999998</v>
       </c>
@@ -771,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.28092149999999999</v>
       </c>
@@ -793,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.26070460000000001</v>
       </c>
@@ -815,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.24194270000000001</v>
       </c>
@@ -837,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.22453100000000001</v>
       </c>
@@ -859,7 +890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0</v>
       </c>
@@ -881,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C23">
         <f>SUM(C2:C22)</f>
         <v>3.7189611999999999</v>
@@ -894,4 +925,598 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5A75F6-D726-44D4-AB09-B83D29A7AE7E}">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <f>A2+B2</f>
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <f>D2/2</f>
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>0.92803389999999997</v>
+      </c>
+      <c r="L2">
+        <f>J2*K2</f>
+        <v>1.8560677999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D22" si="0">A3+B3</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E22" si="1">D3/2</f>
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0.86124679999999998</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L22" si="2">J3*K3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0.79926620000000004</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>0.79926620000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0.74174609999999996</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>0.74174609999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0.68836549999999996</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0.63882649999999996</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0.63882649999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0.59285259999999995</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0.55018730000000005</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0.51059239999999995</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>0.47384710000000002</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0.94769420000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0.43974609999999997</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>0.43974609999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0.4080993</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0.37873000000000001</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>0.37873000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0.35147420000000001</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>0.35147420000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0.32618000000000003</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0.32618000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0.30270609999999998</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>0.30270609999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0.28092149999999999</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>0.26070460000000001</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>0.52140920000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>0.24194270000000001</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>0.48388540000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>0.22453100000000001</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>0.44906200000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L23">
+        <f>SUM(L2:L22)</f>
+        <v>8.2367937999999992</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/negative values.xlsx
+++ b/negative values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Documents\Science\Manuscripts\trout-migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BBEA3E-9492-4EE1-B245-4C1C2E5E4526}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC22D68-84D0-46B2-953E-5D37D689FE10}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{08A05837-9950-45DD-821B-4B48CDF8BCA0}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>weight</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>offsrping</t>
+  </si>
+  <si>
+    <t>MALES</t>
+  </si>
+  <si>
+    <t>SexMod</t>
   </si>
 </sst>
 </file>
@@ -105,9 +111,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,517 +431,685 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193354B8-260E-49CF-B49C-F9DB1FEE72E0}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0.92803389999999997</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <f>C3*B3*A3</f>
+        <v>-1.8560677999999999</v>
+      </c>
+      <c r="F3">
+        <f>A3*B3</f>
+        <v>1.8560677999999999</v>
+      </c>
+      <c r="I3">
         <v>-0.92803389999999997</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <f>A2*B2</f>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f>I3*J3</f>
         <v>-1.8560677999999999</v>
       </c>
-      <c r="F2">
-        <v>-0.92803389999999997</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <f>F2*G2</f>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0.86124679999999998</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D23" si="0">C4*B4*A4</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F23" si="1">A4*B4</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.86124679999999998</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K23" si="2">I4*J4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0.79926620000000004</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.79926620000000004</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0.74174609999999996</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-0.74174609999999996</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0.74174609999999996</v>
+      </c>
+      <c r="I6">
+        <v>0.74174609999999996</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0.68836549999999996</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.68836549999999996</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0.63882649999999996</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.63882649999999996</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0.59285259999999995</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.59285259999999995</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0.55018730000000005</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.55018730000000005</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>0.51059239999999995</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.51059239999999995</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>0.47384710000000002</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-0.94769420000000004</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.94769420000000004</v>
+      </c>
+      <c r="I12">
+        <v>0.47384710000000002</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>0.43974609999999997</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-0.43974609999999997</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.43974609999999997</v>
+      </c>
+      <c r="I13">
+        <v>0.43974609999999997</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>0.4080993</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0.4080993</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>0.37873000000000001</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-0.37873000000000001</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.37873000000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.37873000000000001</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>0.35147420000000001</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>-1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-0.70294840000000003</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.70294840000000003</v>
+      </c>
+      <c r="I16">
+        <v>0.35147420000000001</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>0.32618000000000003</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>-1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-0.32618000000000003</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0.32618000000000003</v>
+      </c>
+      <c r="I17">
+        <v>0.32618000000000003</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>0.30270609999999998</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>-1</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-0.30270609999999998</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0.30270609999999998</v>
+      </c>
+      <c r="I18">
+        <v>0.30270609999999998</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>0.28092149999999999</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>-1</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-0.28092149999999999</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0.28092149999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.28092149999999999</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>0.26070460000000001</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>-1</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-0.52140920000000002</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0.52140920000000002</v>
+      </c>
+      <c r="I20">
+        <v>0.26070460000000001</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>0.24194270000000001</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>-1</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-0.48388540000000002</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0.48388540000000002</v>
+      </c>
+      <c r="I21">
+        <v>0.24194270000000001</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>0.22453100000000001</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>-1</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-0.44906200000000002</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0.44906200000000002</v>
+      </c>
+      <c r="I22">
+        <v>0.22453100000000001</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>-1</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D24" s="1">
+        <f>SUM(D3:D23)</f>
+        <v>-7.4310967999999988</v>
+      </c>
+      <c r="F24">
+        <f>SUM(F3:F23)</f>
+        <v>7.4310967999999988</v>
+      </c>
+      <c r="K24">
+        <f>SUM(K3:K23)</f>
         <v>-1.8560677999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>0.86124679999999998</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C22" si="0">A3*B3</f>
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.86124679999999998</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H22" si="1">F3*G3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>0.79926620000000004</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.79926620000000004</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>0.74174609999999996</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>0.74174609999999996</v>
-      </c>
-      <c r="F5">
-        <v>0.74174609999999996</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>0.68836549999999996</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.68836549999999996</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>0.63882649999999996</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.63882649999999996</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>0.59285259999999995</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.59285259999999995</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>0.55018730000000005</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.55018730000000005</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>0.51059239999999995</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.51059239999999995</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>0.47384710000000002</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>0.94769420000000004</v>
-      </c>
-      <c r="F11">
-        <v>0.47384710000000002</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>0.43974609999999997</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0.43974609999999997</v>
-      </c>
-      <c r="F12">
-        <v>0.43974609999999997</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>0.4080993</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0.4080993</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>0.37873000000000001</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>0.37873000000000001</v>
-      </c>
-      <c r="F14">
-        <v>0.37873000000000001</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>0.35147420000000001</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>0.70294840000000003</v>
-      </c>
-      <c r="F15">
-        <v>0.35147420000000001</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>0.32618000000000003</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>0.32618000000000003</v>
-      </c>
-      <c r="F16">
-        <v>0.32618000000000003</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>0.30270609999999998</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>0.30270609999999998</v>
-      </c>
-      <c r="F17">
-        <v>0.30270609999999998</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>0.28092149999999999</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>0.28092149999999999</v>
-      </c>
-      <c r="F18">
-        <v>0.28092149999999999</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>0.26070460000000001</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>0.52140920000000002</v>
-      </c>
-      <c r="F19">
-        <v>0.26070460000000001</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>0.24194270000000001</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>0.48388540000000002</v>
-      </c>
-      <c r="F20">
-        <v>0.24194270000000001</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>0.22453100000000001</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>0.44906200000000002</v>
-      </c>
-      <c r="F21">
-        <v>0.22453100000000001</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C23">
-        <f>SUM(C2:C22)</f>
-        <v>3.7189611999999999</v>
-      </c>
-      <c r="H23">
-        <f>SUM(H2:H22)</f>
-        <v>-1.8560677999999999</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5A75F6-D726-44D4-AB09-B83D29A7AE7E}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1515,6 +1692,27 @@
         <v>8.2367937999999992</v>
       </c>
     </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J24">
+        <f>SUM(J2:J22)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J27">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
